--- a/0805/0805.xlsx
+++ b/0805/0805.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
@@ -546,7 +546,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
